--- a/Exploration & Analysis/IATI API testing/RED programmes all_March2023.xlsx
+++ b/Exploration & Analysis/IATI API testing/RED programmes all_March2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dfid-my.sharepoint.com/personal/k-prior_dfid_gov_uk/Documents/Documents/Git/ODA_research_and_innovation/Exploration &amp; Analysis/IATI API testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcogovuk-my.sharepoint.com/personal/kim_prior_fcdo_gov_uk/Documents/Documents/Git/ODA_research_and_innovation/Exploration &amp; Analysis/IATI API testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="230" documentId="8_{E2689D71-37CA-43BE-88AC-806C277BDBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{239AEBFB-061C-4B3F-857A-1FD141F3779C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="746" xr2:uid="{3DCEEE41-5904-454A-A69C-D3D8A046AF42}"/>
+    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" tabRatio="746" xr2:uid="{3DCEEE41-5904-454A-A69C-D3D8A046AF42}"/>
   </bookViews>
   <sheets>
     <sheet name="allRED" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,10 +108,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,653 +410,653 @@
   <dimension ref="A1:A129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201880</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>300124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>300760</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>204867</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>300111</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>300123</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>300125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>300126</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>204624</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>300451</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>200574</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>202749</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>203052</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>203067</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>204420</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>204764</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>205271</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>300504</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>300632</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>300644</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>300649</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>300654</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>300655</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>300664</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>300671</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>300728</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>300755</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>300994</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>301079</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>301080</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>301328</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>301554</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>201267</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>201267</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>204765</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>204765</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>204765</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>204765</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>204765</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>300341</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>300341</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>300341</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>300341</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>300341</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>300341</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>300341</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>300341</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>300342</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>300342</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>300343</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>300343</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>300346</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>300347</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>300966</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>301132</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>301133</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>301134</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>301135</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>301136</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>301138</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>301139</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>301542</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>301165</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>300748</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>300656</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>300221</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>300125</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>204931</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>204773</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>204153</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>203844</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>203212</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>203051</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>203050</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>202960</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>202835</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>202568</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>301108</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>205219</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>203752</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>300049</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>300180</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>300211</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>301263</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>300100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>300294</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>300482</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>300484</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>300574</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>203933</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>204291</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>204322</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>204324</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>204695</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>205288</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>300405</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>300769</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>300849</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>300936</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>301108</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>203529</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>204836</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>300397</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>300606</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>201879</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>203804</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>204415</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>300446</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>300815</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>301156</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>301168</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>301453</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>301593</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>202604</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>202604</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>205053</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>205121</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>300704</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>300708</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>300781</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>300995</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>301049</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>301376</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>301531</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>202766</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>300785</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>301290</v>
       </c>
     </row>
@@ -1086,15 +1081,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FAD02C655EF894A8A9B7D16ADA16553" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="964e56d63c52c507d5de3c6d29aac73d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62a1ded6-7f7d-4c32-bf5b-813139b817aa" xmlns:ns3="c9974145-17bc-4834-91c6-b4eec04a0a23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53c8b7c1019a4ca917110c9c7ab11246" ns2:_="" ns3:_="">
     <xsd:import namespace="62a1ded6-7f7d-4c32-bf5b-813139b817aa"/>
@@ -1271,6 +1257,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACDA1CD-8615-4E46-A42A-6686E34B2E8C}">
   <ds:schemaRefs>
@@ -1283,14 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0325D4-E963-4D81-BE9E-8C4FE1643613}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213ADAAD-75DB-4FB1-B7D9-F67C64639574}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1307,4 +1294,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0325D4-E963-4D81-BE9E-8C4FE1643613}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>